--- a/data/trans_camb/P3A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>12.78004380881619</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19.15549718295978</v>
+        <v>19.15549718295979</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>3.476963252445375</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.6563331710862221</v>
+        <v>-0.3321315070131248</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.464806500604429</v>
+        <v>3.824172868778906</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11.64477437882795</v>
+        <v>10.72982330775752</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.587358734464862</v>
+        <v>-2.559694106614621</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3526274566731528</v>
+        <v>0.3016959329479421</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.699507881459985</v>
+        <v>2.522296897991266</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1233782335103495</v>
+        <v>0.1563342774085743</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.991858676940677</v>
+        <v>3.949953798047245</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>8.44586384606629</v>
+        <v>8.506923832568871</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.52870627042542</v>
+        <v>16.20051348344268</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.7239899920312</v>
+        <v>21.21165941780805</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27.63433793663591</v>
+        <v>27.32805201439071</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.41132309847035</v>
+        <v>10.2986949336986</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.36390317464382</v>
+        <v>11.6764811883322</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>13.89347067613714</v>
+        <v>14.08879703500209</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.99268266619633</v>
+        <v>11.72087855264646</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>15.75227302511161</v>
+        <v>15.54171431436103</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>19.52564808906835</v>
+        <v>19.49660145299957</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.3328458621512897</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.4988893676874994</v>
+        <v>0.4988893676874997</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.04160644895025263</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.01721353871386872</v>
+        <v>-0.01302871189451738</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1095933195722011</v>
+        <v>0.08990148639742628</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.273339547933969</v>
+        <v>0.2472383026676657</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.0297732252285849</v>
+        <v>-0.02865480100671085</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.003618978308510683</v>
+        <v>0.003264670657443524</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03228748743802582</v>
+        <v>0.03211256319441042</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.002047393053201706</v>
+        <v>0.002401844504985055</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.06845749936157264</v>
+        <v>0.06433425786831058</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1331187330766712</v>
+        <v>0.1365023741049601</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4775355275957982</v>
+        <v>0.4664402405814658</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.651244561049715</v>
+        <v>0.6427887826352605</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8532406696684581</v>
+        <v>0.8238176701310402</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1191934437978173</v>
+        <v>0.1328292055031714</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1556291501394836</v>
+        <v>0.1444315122661778</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1773638303258585</v>
+        <v>0.1805123509842307</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2118317363359972</v>
+        <v>0.2044017920286258</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2762498222767116</v>
+        <v>0.2739693943136198</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3469726127732628</v>
+        <v>0.345731964816218</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>2.308162284220627</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>7.363944548915491</v>
+        <v>7.363944548915513</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.06109764872014312</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.991687196720769</v>
+        <v>-6.504259040761918</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.617451323118352</v>
+        <v>2.069044002673879</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28.13062222218476</v>
+        <v>28.09163326819528</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.269877681802538</v>
+        <v>-4.30969615600416</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.031133549610686</v>
+        <v>-2.223295101925916</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.190176573447812</v>
+        <v>2.932755102126362</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.730210311532505</v>
+        <v>-4.611262350874142</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.452392232158705</v>
+        <v>1.620280954151792</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>16.90664819315525</v>
+        <v>16.89369082101672</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.57777458865008</v>
+        <v>6.175900043984799</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.41918238832734</v>
+        <v>15.39686885901186</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>42.65649362062611</v>
+        <v>41.50857059427418</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.989121941559169</v>
+        <v>4.991351732258131</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.14746839975796</v>
+        <v>6.780446975433282</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>11.53336255651463</v>
+        <v>11.4393813199917</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.349385141844213</v>
+        <v>4.33988673042614</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.18610610768376</v>
+        <v>10.03127383505841</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>25.34585510389623</v>
+        <v>25.19364946937237</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.02755949807102356</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08792562679772224</v>
+        <v>0.08792562679772251</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.0009987277397644414</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.168934483290279</v>
+        <v>-0.1608914295881459</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.05954236052578722</v>
+        <v>0.0521217932374228</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.6765566237597711</v>
+        <v>0.6744273151572255</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.04904646505266244</v>
+        <v>-0.0500225072714463</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02359275168477696</v>
+        <v>-0.02522474972469513</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03735097252129174</v>
+        <v>0.03413070140582378</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0739914663880759</v>
+        <v>-0.07158480562347176</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.02188840142120184</v>
+        <v>0.02626547904500112</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2676474769439727</v>
+        <v>0.2673202908982811</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1568041696896804</v>
+        <v>0.1810205572458276</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4354305653119787</v>
+        <v>0.4365811607105227</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.235491864508418</v>
+        <v>1.233599697793068</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.06131339997218884</v>
+        <v>0.06093784489831928</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08705839713681447</v>
+        <v>0.08440059876180894</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.143334855400128</v>
+        <v>0.1410954921197927</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07309493995283628</v>
+        <v>0.07363372389664138</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1707778012521591</v>
+        <v>0.1685638035566898</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4294109694936846</v>
+        <v>0.4309430246665877</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>30.54650938599992</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47.65977331269918</v>
+        <v>47.65977331269919</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.62840207300906</v>
@@ -1083,7 +1083,7 @@
         <v>6.762799422483246</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>6.559978015782219</v>
+        <v>6.559978015782198</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>6.715973756945825</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.897243064155433</v>
+        <v>5.626735930241626</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.92038964117545</v>
+        <v>23.09077497788764</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>40.74629218857189</v>
+        <v>40.80438581446965</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.209299906890354</v>
+        <v>-5.428357224549121</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.938148942183723</v>
+        <v>1.658074237678965</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.853927184080287</v>
+        <v>1.773651128278025</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.103608379702429</v>
+        <v>1.168719225249646</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>13.29492442443386</v>
+        <v>13.35551457901262</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>22.42430869120888</v>
+        <v>22.20102982987659</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>20.40036258562247</v>
+        <v>20.23755615388037</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>37.4816017517394</v>
+        <v>38.20195319347322</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>54.0198351506145</v>
+        <v>54.42655439789617</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.133107517706876</v>
+        <v>6.084791402799016</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>12.18579553720219</v>
+        <v>11.86903741964297</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>11.21419079232581</v>
+        <v>11.50885263726361</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>11.98258873862798</v>
+        <v>12.30428222511621</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>23.68029712890758</v>
+        <v>23.14815220935512</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>31.78539891479636</v>
+        <v>31.34613154951855</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>1.070685413039697</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.670522265895071</v>
+        <v>1.670522265895072</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.007553807388589036</v>
@@ -1188,7 +1188,7 @@
         <v>0.08129330955336152</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07885526247123463</v>
+        <v>0.07885526247123437</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1187574977283091</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1810280873937705</v>
+        <v>0.167310057327866</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.6868564084764498</v>
+        <v>0.7106612303183433</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.240758491950602</v>
+        <v>1.234110037467785</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.05897494395243751</v>
+        <v>-0.0628360113893795</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02269290994727514</v>
+        <v>0.01956407581681554</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02154446535619186</v>
+        <v>0.02040711042793839</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01695530840921332</v>
+        <v>0.02013194990435337</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2253586259849888</v>
+        <v>0.2294591784326556</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3733057929431571</v>
+        <v>0.3751140725727056</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8145126627196988</v>
+        <v>0.8117459662159985</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.495050815830633</v>
+        <v>1.590945413214127</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.231975471577301</v>
+        <v>2.307910741252584</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.07543293102622253</v>
+        <v>0.0761320530863261</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1536748781897584</v>
+        <v>0.148317056123236</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1402498620732327</v>
+        <v>0.1449878833747321</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2212655713352236</v>
+        <v>0.2259039429434432</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.446222770222989</v>
+        <v>0.4360863978843268</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5922239019615314</v>
+        <v>0.5958512269281503</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>0.3934149717370827</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.905955191896107</v>
+        <v>5.905955191896117</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>9.685177898279285</v>
@@ -1306,7 +1306,7 @@
         <v>10.86441271730374</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>20.40808924844496</v>
+        <v>20.40808924844495</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>10.96469247335411</v>
+        <v>11.27694333379297</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>13.74834206280205</v>
+        <v>14.61590853383422</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>25.24548051599159</v>
+        <v>26.79534141711358</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.312735627559829</v>
+        <v>-4.248116102812107</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.047180244049414</v>
+        <v>-4.564346935284988</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3103819030146348</v>
+        <v>0.7985458013237828</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.5831848244503</v>
+        <v>4.247763373567719</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>5.407417389969998</v>
+        <v>5.639995531701423</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>15.1070736501781</v>
+        <v>14.41165857315112</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>25.86536334861116</v>
+        <v>25.74181493478246</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>28.283918077321</v>
+        <v>28.95954678876412</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>41.64487716859428</v>
+        <v>42.22248539162876</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.663553409318662</v>
+        <v>6.839357005827082</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.542865992953842</v>
+        <v>6.278596922665264</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.59843344016882</v>
+        <v>11.10857205956451</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>14.43268119182627</v>
+        <v>14.65265359590059</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>15.51479802655669</v>
+        <v>15.8350226307239</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>25.70785472410543</v>
+        <v>25.5851583780327</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.004771895400271654</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07163581063013996</v>
+        <v>0.0716358106301401</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.17057872288927</v>
@@ -1411,7 +1411,7 @@
         <v>0.1913478168107651</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.359434368389709</v>
+        <v>0.3594343683897088</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.311721167088881</v>
+        <v>0.3357216706943472</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3989891396629125</v>
+        <v>0.4516051997639785</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.7579435695624583</v>
+        <v>0.7971656780361587</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.05051953504464601</v>
+        <v>-0.04962771261360188</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.06010815191517974</v>
+        <v>-0.05405977996050631</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003022388383265121</v>
+        <v>0.009425029776806019</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07692027921148688</v>
+        <v>0.06987265461852801</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.09145698693710613</v>
+        <v>0.09757090713914457</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2531729217660866</v>
+        <v>0.2428511719768998</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9500349764693774</v>
+        <v>0.97657126286648</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.068309200607537</v>
+        <v>1.131895122248032</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.593727272229022</v>
+        <v>1.615428159494864</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.08501808600132167</v>
+        <v>0.08562945405438954</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.06859695890354284</v>
+        <v>0.07838619112671234</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1330805884186437</v>
+        <v>0.1390829097817068</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2700310372323699</v>
+        <v>0.2746331557166729</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2874209750956007</v>
+        <v>0.2970120678196272</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4747429584503758</v>
+        <v>0.4741801112494846</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>21.37141728142104</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>52.08634589885705</v>
+        <v>52.08634589885703</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-6.436171742616303</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-14.29694167868707</v>
+        <v>-15.25849248222856</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>11.81596348987361</v>
+        <v>11.97063842243434</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>44.37728310536141</v>
+        <v>44.21311886026314</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-14.12778017804788</v>
+        <v>-13.23600029552154</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.7806893157077259</v>
+        <v>0.9125678129321885</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.150534885886727</v>
+        <v>2.722754874996988</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-13.5418392961017</v>
+        <v>-12.90957268347631</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>7.176146047070328</v>
+        <v>7.719490792347614</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>24.06480342960779</v>
+        <v>24.63671119868375</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.082666873647494</v>
+        <v>3.233885028879565</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>30.50788167630552</v>
+        <v>30.47990518875666</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>60.3117302714218</v>
+        <v>60.11349476555547</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.9106229504841288</v>
+        <v>0.7732652120555532</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>12.95472956519155</v>
+        <v>12.57840011573347</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>12.84953964726582</v>
+        <v>13.67622667500773</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2927056268047908</v>
+        <v>0.6970068905432332</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>19.55359811420354</v>
+        <v>20.34345286602982</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>35.05369861686997</v>
+        <v>35.55639362376698</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.5923823001206824</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1.443752137827089</v>
+        <v>1.443752137827088</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.07422881495430654</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3537786383177555</v>
+        <v>-0.3832650287918166</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2730803412112387</v>
+        <v>0.2972480767054849</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>1.059165527311783</v>
+        <v>1.0354084542536</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1562961318755869</v>
+        <v>-0.1494123910095743</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.009294618191788718</v>
+        <v>0.01046557739387299</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02406665887891135</v>
+        <v>0.03014514760876691</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2094235726433054</v>
+        <v>-0.1997524433286992</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1150939605345453</v>
+        <v>0.1134787499443128</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3660544033470985</v>
+        <v>0.3728645263312317</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1507769060878903</v>
+        <v>0.1048631195574281</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.983167819971086</v>
+        <v>1.010211818551801</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.065450499943239</v>
+        <v>2.013519075956625</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.01103585214104753</v>
+        <v>0.009206051017269656</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1577528550042352</v>
+        <v>0.1522943031230733</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1554736438341333</v>
+        <v>0.168720022020781</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.004531737226263552</v>
+        <v>0.01249573991754567</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3406328865315136</v>
+        <v>0.3525169402583245</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.6139148677407036</v>
+        <v>0.6207708167813273</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>0.3090335311226378</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>4.276932423150404</v>
+        <v>4.27693242315037</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>7.508933515701688</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>7.664772929587323</v>
+        <v>8.263261789736514</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>8.74684369332274</v>
+        <v>8.621563879107583</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>42.6052723039066</v>
+        <v>43.78343150766081</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-6.585362354409711</v>
+        <v>-7.239285473007319</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.999348992672885</v>
+        <v>-5.414231793538416</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.0345739955581662</v>
+        <v>0.1902386149959699</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.331389671709389</v>
+        <v>1.525195660508594</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>3.038574382626834</v>
+        <v>2.800109211897661</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>21.85273843080671</v>
+        <v>22.03527361179431</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>24.8846251664474</v>
+        <v>24.23998717212931</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>24.68305551435115</v>
+        <v>25.12836479967032</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>57.20808555596252</v>
+        <v>57.68810536625362</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.934943459395433</v>
+        <v>4.279375702906538</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.219719377614701</v>
+        <v>5.958839502049997</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>9.049568754800065</v>
+        <v>9.463745257858767</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>13.22832752890033</v>
+        <v>13.56858056124914</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>14.73251783329593</v>
+        <v>14.3219189060818</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>32.09588309562263</v>
+        <v>31.93061705493929</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.003531035622148393</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04886848583972073</v>
+        <v>0.04886848583972035</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1304352878262019</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.2590391122434769</v>
+        <v>0.2751019541445272</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.2724174568085373</v>
+        <v>0.2802676661412669</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1.308554255838941</v>
+        <v>1.360198968149785</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.07360209872173791</v>
+        <v>-0.08005457796044471</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.066768990225122</v>
+        <v>-0.05963310388405368</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.0002696883557807031</v>
+        <v>0.00226751483582887</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02294338379490053</v>
+        <v>0.02533976062046094</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.04943705009977557</v>
+        <v>0.04660728943241323</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.3539396388426547</v>
+        <v>0.3597002745474032</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.123872567629225</v>
+        <v>1.062975572886046</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.085590823850758</v>
+        <v>1.0816048981996</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.543290344234382</v>
+        <v>2.543345608809606</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.05865976936146152</v>
+        <v>0.05115634121267175</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.07457327897240669</v>
+        <v>0.07266183564689674</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1081164607551123</v>
+        <v>0.112666977267369</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2458146182011014</v>
+        <v>0.246996932367174</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2691766184155083</v>
+        <v>0.2583865919082181</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.6030828582853367</v>
+        <v>0.5933265295395935</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>6.169598646127039</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>16.49432388520902</v>
+        <v>16.49432388520904</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.4241690849849205</v>
+        <v>-0.4567275695714255</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>6.074121320056636</v>
+        <v>5.886902744908714</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>25.58212458329122</v>
+        <v>26.14250294293345</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-8.367440951688861</v>
+        <v>-7.895573555122358</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.041902724523007</v>
+        <v>-3.140972647796694</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.331609174814033</v>
+        <v>-2.461180680619621</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-3.308689736829126</v>
+        <v>-3.01743070120502</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>2.685463768612717</v>
+        <v>2.39036843799577</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>12.6795134173038</v>
+        <v>12.69033085725883</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>11.15778106671594</v>
+        <v>11.0359593362577</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>17.17807298954326</v>
+        <v>17.6381068036234</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>37.18636702313787</v>
+        <v>37.39007810548165</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.1716158276879005</v>
+        <v>0.505882162062757</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.523348333570031</v>
+        <v>4.497861856262851</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.278610349345407</v>
+        <v>5.105002544764166</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.328958548706972</v>
+        <v>5.088428787926959</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>10.23529666675831</v>
+        <v>10.20536764357011</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>19.7103095522714</v>
+        <v>20.15509360869711</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.09639645174837969</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.2577143810676915</v>
+        <v>0.2577143810676918</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.01004522619405014</v>
+        <v>-0.01069889359685154</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1397864660215236</v>
+        <v>0.1316502002424217</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.5817690365754813</v>
+        <v>0.587602256812075</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.0961507090427081</v>
+        <v>-0.08972267606762536</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.03465012591601389</v>
+        <v>-0.03538617098215013</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.02650370984115001</v>
+        <v>-0.02803691147841201</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.04995765400598014</v>
+        <v>-0.0461334927868633</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.04134033811271023</v>
+        <v>0.03682501810394898</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1910443355652447</v>
+        <v>0.1936841270137327</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.295348226058147</v>
+        <v>0.2878550945225115</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4628653789291214</v>
+        <v>0.4670169472624057</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.9896022209700679</v>
+        <v>0.9936115173515405</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.001270488207949818</v>
+        <v>0.005175331991610739</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.05399206395408675</v>
+        <v>0.05344270262973584</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.06247477954404285</v>
+        <v>0.06015393773212122</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.070075887729874</v>
+        <v>0.08113914457250566</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1662319419693624</v>
+        <v>0.1636244560046241</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.3190722677491174</v>
+        <v>0.3270391064991756</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>10.83468530610795</v>
+        <v>10.49565507941113</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>22.04212561748577</v>
+        <v>21.87325148537719</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>7.207775799604494</v>
+        <v>7.101105153314889</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.793401415762246</v>
+        <v>-3.01090817363219</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.987277185159473</v>
+        <v>1.776176268544984</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>7.564487151123203</v>
+        <v>7.668969072067343</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>4.706099914956057</v>
+        <v>4.966318087001292</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>12.87447259549516</v>
+        <v>12.81291374221754</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>7.845979983409634</v>
+        <v>7.879900228096197</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>20.76443334497083</v>
+        <v>20.98565352828624</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>31.97266668731704</v>
+        <v>32.14462162554057</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>17.04253055824311</v>
+        <v>17.37339109994703</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.67330496956995</v>
+        <v>4.851909073380377</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>8.970442117921671</v>
+        <v>8.907749452924966</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>14.18625462518035</v>
+        <v>14.40373199265932</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>11.91569559396876</v>
+        <v>11.91951867009622</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>19.51043181996063</v>
+        <v>19.66760110764264</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>14.80945466186992</v>
+        <v>14.45913369828523</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.327290108581494</v>
+        <v>0.3110668455935209</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.6616738772601033</v>
+        <v>0.6358149674907809</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.215785161157831</v>
+        <v>0.2096334912108072</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.03336118031924806</v>
+        <v>-0.03623107213836323</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.02370439435121618</v>
+        <v>0.0222516707763149</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.08962442755320819</v>
+        <v>0.09099505373983206</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.07850889218571146</v>
+        <v>0.08445277511910237</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.2183451724010722</v>
+        <v>0.2201835234719947</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.1331697711633146</v>
+        <v>0.1346117632251466</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.745932876161675</v>
+        <v>0.7397295886317855</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.136808632450298</v>
+        <v>1.14372139239235</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.6124710542763306</v>
+        <v>0.6026716915952673</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.05821085612265215</v>
+        <v>0.0603011755342665</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1136313821763305</v>
+        <v>0.112675547952518</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1780048437113897</v>
+        <v>0.1813420760252801</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.215054120820772</v>
+        <v>0.2158562877737899</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.3539720293403391</v>
+        <v>0.3627505619536412</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.268598071763927</v>
+        <v>0.2598222169495956</v>
       </c>
     </row>
     <row r="52">
@@ -2376,7 +2376,7 @@
         <v>11.13106821602018</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>18.9014177729871</v>
+        <v>18.90141777298708</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>6.923339378267102</v>
+        <v>7.244816634515519</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>16.53347087511101</v>
+        <v>16.63562504903612</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>28.68676789221248</v>
+        <v>28.6035281263813</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-2.463600194393381</v>
+        <v>-2.301023496079367</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>1.480082312816258</v>
+        <v>1.805700156798323</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>4.816625230533678</v>
+        <v>4.952467914616341</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>2.668432246621061</v>
+        <v>2.7005716222565</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>9.490544770404858</v>
+        <v>9.43639416803315</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>17.35209809089899</v>
+        <v>17.35237320753229</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>11.79425386976589</v>
+        <v>11.5968055832225</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>21.27463633457747</v>
+        <v>21.45145918984147</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>33.64170206653367</v>
+        <v>33.71570525806518</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1.135930211450886</v>
+        <v>1.299986576389043</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>4.88131737486777</v>
+        <v>5.14469247087416</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>8.099425163295146</v>
+        <v>8.126360012146565</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>6.0471341317345</v>
+        <v>6.144421446309716</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>12.70614815424781</v>
+        <v>12.68110537700703</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>20.67968877006384</v>
+        <v>20.58086896518673</v>
       </c>
     </row>
     <row r="55">
@@ -2481,7 +2481,7 @@
         <v>0.1870441936432507</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.3176155583140099</v>
+        <v>0.3176155583140097</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1935094517507983</v>
+        <v>0.2003687668860519</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.4686421759527538</v>
+        <v>0.4647165203599789</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.8101798836531756</v>
+        <v>0.8059953756296536</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.02904392561529426</v>
+        <v>-0.02711095134106173</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.01732320228370395</v>
+        <v>0.02156327031077148</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.05641967197678736</v>
+        <v>0.05849650606630519</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.04403498519298381</v>
+        <v>0.04529924766603922</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.1579770928396938</v>
+        <v>0.1563269617089053</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.2862969607251072</v>
+        <v>0.2860144034703844</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.3550766035293803</v>
+        <v>0.3447118947413589</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.6452114692014831</v>
+        <v>0.6468100529192412</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.021829009472748</v>
+        <v>1.021793836840215</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.01366169804375661</v>
+        <v>0.01563805715229594</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.0585803402610729</v>
+        <v>0.06271755413361396</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.09722897713552871</v>
+        <v>0.09794392259967764</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1032656912445741</v>
+        <v>0.1045035145999461</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.2173844331054474</v>
+        <v>0.2167051935113538</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.3530588232136407</v>
+        <v>0.3519892333729826</v>
       </c>
     </row>
     <row r="58">
